--- a/public/plantillas/Plantilla Unidades.xlsx
+++ b/public/plantillas/Plantilla Unidades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santos.dzul\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proyectosWEB\rentas\public\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B72F1B9-9008-4B2B-BC6E-AC6405F8B1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD8FD6D-EDB8-42C5-BD47-D29A4C12732E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="3060" windowWidth="21600" windowHeight="11385" xr2:uid="{F9104C32-D0DC-481A-9F4E-1C9126EA30A7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{F9104C32-D0DC-481A-9F4E-1C9126EA30A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Nombre</t>
   </si>
@@ -59,18 +59,12 @@
     <t>Local 01</t>
   </si>
   <si>
-    <t>Planta Baja</t>
-  </si>
-  <si>
     <t>Disponible</t>
   </si>
   <si>
     <t>Local 02</t>
   </si>
   <si>
-    <t>Nivel 1</t>
-  </si>
-  <si>
     <t>Comprometido</t>
   </si>
   <si>
@@ -78,6 +72,9 @@
   </si>
   <si>
     <t>Rentado</t>
+  </si>
+  <si>
+    <t>Precio primer pago</t>
   </si>
 </sst>
 </file>
@@ -495,15 +492,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C0C4F7-338F-47C9-8BE5-09EFE299A88A}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,13 +517,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -536,16 +539,19 @@
       <c r="D2" s="3">
         <v>4500</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="B3" s="2">
         <v>150</v>
@@ -556,16 +562,19 @@
       <c r="D3" s="3">
         <v>5000</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>200</v>
@@ -576,11 +585,14 @@
       <c r="D4" s="3">
         <v>6000</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
+      <c r="E4" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
